--- a/views/penduduk/penduduk.xlsx
+++ b/views/penduduk/penduduk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laporan_jumlah_penduduk\views\penduduk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF54DAB-3F46-4D08-83EA-1D9FEF2EF4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC578F58-B725-4AD1-9ADE-1A1783E95EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{47A09F65-BD6C-40F0-A457-B5986FAF0861}"/>
   </bookViews>
@@ -122,13 +122,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -462,7 +459,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,162 +467,162 @@
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="4" width="25.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="60.85546875" customWidth="1"/>
     <col min="6" max="6" width="28.42578125" customWidth="1"/>
     <col min="7" max="7" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
